--- a/data/riskindicators_table.xlsx
+++ b/data/riskindicators_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28618"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/a_leone_lse_ac_uk/Documents/UN AI Risk Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{878C6014-ECAA-470A-B5A8-2FC51B5613A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F03319A-750F-4AD2-A6C2-52AF6DE512A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" firstSheet="1" activeTab="2" xr2:uid="{BC418822-EC18-49DF-9421-2BAAC4CDB623}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" activeTab="2" xr2:uid="{BC418822-EC18-49DF-9421-2BAAC4CDB623}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean_Index_V3" sheetId="25" r:id="rId1"/>
@@ -7850,8 +7850,8 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7951,19 +7951,19 @@
         <v>12</v>
       </c>
       <c r="D4" s="171">
-        <v>-0.78</v>
+        <v>3.8921832900000002</v>
       </c>
       <c r="E4" s="171">
-        <v>-0.27</v>
+        <v>-0.43915344000000001</v>
       </c>
       <c r="F4" s="171">
-        <v>0.74</v>
+        <v>0.68092105000000003</v>
       </c>
       <c r="G4" s="171" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="171">
-        <v>-0.48</v>
+        <v>-0.33808126999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -12162,7 +12162,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B10"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12262,19 +12262,19 @@
         <v>12</v>
       </c>
       <c r="D4" s="171">
-        <v>-0.78</v>
+        <v>3.8921832900000002</v>
       </c>
       <c r="E4" s="171">
-        <v>-0.27</v>
+        <v>-0.43915344000000001</v>
       </c>
       <c r="F4" s="171">
-        <v>0.74</v>
+        <v>0.68092105000000003</v>
       </c>
       <c r="G4" s="171" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="171">
-        <v>-0.48</v>
+        <v>-0.33808126999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -13296,7 +13296,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13396,19 +13396,19 @@
         <v>12</v>
       </c>
       <c r="D4" s="171">
-        <v>-0.78</v>
+        <v>3.8921832900000002</v>
       </c>
       <c r="E4" s="171">
-        <v>-0.27</v>
+        <v>-0.43915344000000001</v>
       </c>
       <c r="F4" s="171">
-        <v>0.74</v>
+        <v>0.68092105000000003</v>
       </c>
       <c r="G4" s="171" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="171">
-        <v>-0.48</v>
+        <v>-0.33808126999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
@@ -17225,8 +17225,8 @@
   </sheetPr>
   <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView zoomScale="104" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -17474,19 +17474,19 @@
         <v>163</v>
       </c>
       <c r="D6" s="161">
-        <v>-0.78</v>
+        <v>3.8921832900000002</v>
       </c>
       <c r="E6" s="161">
-        <v>-0.27</v>
+        <v>-0.43915344000000001</v>
       </c>
       <c r="F6" s="161">
-        <v>0.74</v>
+        <v>0.68092105000000003</v>
       </c>
       <c r="G6" s="161" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="161">
-        <v>-0.48</v>
+        <v>-0.33808126999999999</v>
       </c>
       <c r="I6" s="73" t="s">
         <v>249</v>
@@ -21392,6 +21392,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="712b93ca-5502-4ce1-a9c7-cd4c31346910" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC57C552BBEB5F4DA229B30897461026" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51e7f134bd36ef85d792aec84b36130b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="712b93ca-5502-4ce1-a9c7-cd4c31346910" xmlns:ns4="252efb43-a1ee-43f0-9fd2-da72bfaf19b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f27f3b5831f38dbcc9fc59f1148d05" ns3:_="" ns4:_="">
     <xsd:import namespace="712b93ca-5502-4ce1-a9c7-cd4c31346910"/>
@@ -21598,25 +21615,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="712b93ca-5502-4ce1-a9c7-cd4c31346910" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F242A778-7748-43F6-A496-34B39D9D25E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE344AF2-885A-42D1-9587-21DA3AE0CF36}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21624,5 +21624,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE344AF2-885A-42D1-9587-21DA3AE0CF36}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F242A778-7748-43F6-A496-34B39D9D25E1}"/>
 </file>